--- a/DATA_goal/Junction_Flooding_330.xlsx
+++ b/DATA_goal/Junction_Flooding_330.xlsx
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
@@ -655,103 +655,103 @@
         <v>45011.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>9.56</v>
+        <v>95.59</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45011.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.29</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.45</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.5</v>
+        <v>25.04</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.97</v>
+        <v>19.69</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.27</v>
+        <v>32.72</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.85</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.82</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.52</v>
+        <v>25.19</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.01</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.29</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.71</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.75</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.98</v>
+        <v>29.79</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45011.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.65</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="T4" s="4" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="U4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AC4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45011.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.49</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.75</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>55.57</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.67</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_330.xlsx
+++ b/DATA_goal/Junction_Flooding_330.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,7 +658,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.97</v>
+        <v>5.971</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>2.73</v>
@@ -667,91 +667,91 @@
         <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.34</v>
+        <v>13.342</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.28</v>
+        <v>5.281</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.25</v>
+        <v>18.251</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.38</v>
+        <v>4.378</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.24</v>
+        <v>5.239</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.41</v>
+        <v>7.412</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.207000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.47</v>
+        <v>2.471</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.77</v>
+        <v>6.767</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.83</v>
+        <v>8.829000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.12</v>
+        <v>1.124</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.871</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>95.59</v>
+        <v>95.593</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.54</v>
+        <v>18.541</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.25</v>
+        <v>6.247</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.31</v>
+        <v>11.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.84</v>
+        <v>6.838</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.072</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.92</v>
+        <v>10.924</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.52</v>
+        <v>5.517</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.3</v>
+        <v>5.296</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.77</v>
+        <v>5.767</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.03</v>
+        <v>2.035</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.72</v>
+        <v>15.721</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.104</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.81</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45011.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.29</v>
+        <v>11.293</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>8.380000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.452</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>25.04</v>
+        <v>25.044</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19.69</v>
+        <v>19.691</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.24</v>
+        <v>8.237</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>32.72</v>
+        <v>32.716</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.85</v>
+        <v>13.852</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.26</v>
+        <v>6.257</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.366</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.03</v>
+        <v>10.032</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.82</v>
+        <v>10.824</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.98</v>
+        <v>2.984</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.48</v>
+        <v>12.478</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>8.034000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.52</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.665</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>130</v>
+        <v>130.004</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>25.19</v>
+        <v>25.195</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>16.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.01</v>
+        <v>9.015000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.244</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.29</v>
+        <v>17.288</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.71</v>
+        <v>6.711</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.75</v>
+        <v>7.749</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.73</v>
+        <v>10.726</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.945</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>29.79</v>
+        <v>29.787</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.48</v>
+        <v>4.479</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="4">
@@ -863,79 +863,79 @@
         <v>45011.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.27</v>
+        <v>1.267</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.888</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.91</v>
+        <v>1.906</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.555</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.795999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.65</v>
+        <v>1.651</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>0.97</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.465</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.245</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.47</v>
+        <v>1.471</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.128</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.489</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.33</v>
+        <v>1.332</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.273</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.262</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>9.960000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.6</v>
+        <v>3.599</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.19</v>
+        <v>2.186</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.27</v>
+        <v>1.272</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.178</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.1</v>
+        <v>5.104</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>0.92</v>
@@ -944,22 +944,22 @@
         <v>1</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.084</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.4</v>
+        <v>1.402</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.627</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>9.462999999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.31</v>
+        <v>1.312</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45011.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.57</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>50.05</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.4</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.41</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>45.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_330.xlsx
+++ b/DATA_goal/Junction_Flooding_330.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>45011.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.15</v>
+        <v>5.147</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.82</v>
+        <v>3.821</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.49</v>
+        <v>11.491</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.99</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.71</v>
+        <v>3.709</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.06</v>
+        <v>15.056</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.32</v>
+        <v>6.317</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.91</v>
+        <v>2.913</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.75</v>
+        <v>3.746</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.61</v>
+        <v>4.606</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5</v>
+        <v>4.997</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.35</v>
+        <v>1.346</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.62</v>
+        <v>5.625</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.73</v>
+        <v>3.732</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.232</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.321</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.57</v>
+        <v>55.566</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.42</v>
+        <v>11.421</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>7.37</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.1</v>
+        <v>4.096</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.67</v>
+        <v>7.674</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.1</v>
+        <v>3.098</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.6</v>
+        <v>3.595</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.9</v>
+        <v>4.901</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>13.43</v>
+        <v>13.434</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.03</v>
+        <v>2.028</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.77</v>
+        <v>4.771</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45011.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>50.05</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>204.4</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_330.xlsx
+++ b/DATA_goal/Junction_Flooding_330.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>45011.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.147</v>
+        <v>5.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.821</v>
+        <v>3.82</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.491</v>
+        <v>11.49</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.994999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.709</v>
+        <v>3.71</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.056</v>
+        <v>15.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.317</v>
+        <v>6.32</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.913</v>
+        <v>2.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.746</v>
+        <v>3.75</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.606</v>
+        <v>4.61</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.997</v>
+        <v>5</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.346</v>
+        <v>1.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.136</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.625</v>
+        <v>5.62</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.732</v>
+        <v>3.73</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.232</v>
+        <v>0.23</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.321</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.566</v>
+        <v>55.57</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.421</v>
+        <v>11.42</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.817</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>7.37</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.096</v>
+        <v>4.1</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.674</v>
+        <v>7.67</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.372</v>
+        <v>3.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.098</v>
+        <v>3.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.595</v>
+        <v>3.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.901</v>
+        <v>4.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>13.434</v>
+        <v>13.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.028</v>
+        <v>2.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.771</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45011.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>38.67</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.57</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>50.05</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.69</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>204.4</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.41</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>45.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.05</v>
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>
